--- a/biology/Botanique/Mauritia_flexuosa/Mauritia_flexuosa.xlsx
+++ b/biology/Botanique/Mauritia_flexuosa/Mauritia_flexuosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Palmier-bâche ou Aguaje (Mauritia flexuosa) est une espèce de plantes à fleurs de la famille des Arecaceae (les palmiers), aux fruits comestibles.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Fleurs
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Nord de l'Amérique du Sud : forêt amazonienne brésilienne, colombienne et péruvienne, bassin de l'Orénoque et île de la Trinité.
 </t>
@@ -576,7 +592,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Zones marécageuses.
 </t>
@@ -609,14 +627,124 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Utilisation
-En dehors des fruits comestibles, on utilise également sa fibre et ses feuilles pour la couverture des habitations, pour fabriquer des chapeaux, des cordes, des hamacs, et des ficelles pour les jeux de ficelle, et la moelle des pétioles pour faire des bouchons.
-Noms vernaculaires
-En Guyane Française, il est appelé palmier-bache. Ce palmier est appelé aguaje en espagnol de Colombie et du Pérou, buriti, canangucho en espagnol de Colombie et de l'Équateur, ou encore morete en Equateur, inajazeiro en portugais, moriche en espagnol de Colombie et du Venezuela  et ite en anglais de Guyana.
-Philatélie
-Représenté sur un timbre du Brésil émis en 2006 et consacré au Parc national de la Chapada dos Veadeiros.
-Histoire
-Il est appelé « arbre de vie » par Humboldt qui le décrit comme une espèce « clé de voute » pour l'écosystème.
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En dehors des fruits comestibles, on utilise également sa fibre et ses feuilles pour la couverture des habitations, pour fabriquer des chapeaux, des cordes, des hamacs, et des ficelles pour les jeux de ficelle, et la moelle des pétioles pour faire des bouchons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mauritia_flexuosa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mauritia_flexuosa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>L'espèce et l'Homme</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane Française, il est appelé palmier-bache. Ce palmier est appelé aguaje en espagnol de Colombie et du Pérou, buriti, canangucho en espagnol de Colombie et de l'Équateur, ou encore morete en Equateur, inajazeiro en portugais, moriche en espagnol de Colombie et du Venezuela  et ite en anglais de Guyana.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mauritia_flexuosa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mauritia_flexuosa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>L'espèce et l'Homme</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Philatélie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Représenté sur un timbre du Brésil émis en 2006 et consacré au Parc national de la Chapada dos Veadeiros.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mauritia_flexuosa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mauritia_flexuosa</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>L'espèce et l'Homme</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est appelé « arbre de vie » par Humboldt qui le décrit comme une espèce « clé de voute » pour l'écosystème.
 </t>
         </is>
       </c>
